--- a/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>jbpm &amp; java revision</t>
+  </si>
+  <si>
+    <t>cms/learning</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +652,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,10 +915,18 @@
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="10">
+        <v>44425</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">

--- a/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>cms/learning</t>
+  </si>
+  <si>
+    <t>office visit/jbpm</t>
+  </si>
+  <si>
+    <t>office visit/jbpm interview que revision</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,7 +658,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -932,10 +938,18 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="10">
+        <v>44426</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
